--- a/Data_Assignment_SMALLER.xlsx
+++ b/Data_Assignment_SMALLER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\75590\Desktop\BSC2\Master\Asset pricing\AP_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4565327A-2D7A-41E3-99FF-A15ACFFFBC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98DBDEB-1365-410C-8E8A-381661724E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{06C4EFBC-54E0-4736-9091-266BD5EE200D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Mkt-RF</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>RF</t>
-  </si>
-  <si>
-    <t>Copyright 2023 Kenneth R. French</t>
   </si>
   <si>
     <t>This file was created by CMPT_ME_RETS using the 202307 CRSP database.  It contains</t>
@@ -443,17 +440,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775EFB95-8378-49AD-9742-0BF4364E8C50}">
-  <dimension ref="A1:E701"/>
+  <dimension ref="A1:E699"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="H698" sqref="H698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -12332,11 +12329,6 @@
       </c>
       <c r="E699">
         <v>0</v>
-      </c>
-    </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A701" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -12357,40 +12349,40 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>45262</v>
@@ -12417,7 +12409,7 @@
         <v>45269</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -36871,10 +36863,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
